--- a/mystuff/tester.xlsx
+++ b/mystuff/tester.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitRepos\pokemon-tcg-data\mystuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81DF998-3B64-47D8-9101-41D8D37011B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06854F6-B050-41E8-A96B-90D2B505B45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="2355" windowWidth="21600" windowHeight="11385" xr2:uid="{F685E34E-A3F6-4C1D-93F4-64DBFD846789}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F685E34E-A3F6-4C1D-93F4-64DBFD846789}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,22 +35,67 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>dfg</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>CardIdentifier</t>
+  </si>
+  <si>
+    <t>CardName</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Worth</t>
+  </si>
+  <si>
+    <t>ListDate</t>
+  </si>
+  <si>
+    <t>SoldDate</t>
+  </si>
+  <si>
+    <t>SoldPrice</t>
+  </si>
+  <si>
+    <t>dp5-70</t>
+  </si>
+  <si>
+    <t>Pikachu</t>
+  </si>
+  <si>
+    <t>mp</t>
+  </si>
+  <si>
+    <t>pl1-56</t>
+  </si>
+  <si>
+    <t>Monferno</t>
+  </si>
+  <si>
+    <t>hp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -73,8 +118,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,18 +436,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AADE868-39D0-4A86-84C5-4F3C363AD805}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>0.99</v>
+      </c>
+      <c r="F2" s="2">
+        <v>44639</v>
+      </c>
+      <c r="G2">
+        <v>0.99</v>
+      </c>
+      <c r="H2" s="2">
+        <v>44641</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F3" s="2">
+        <v>44640</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>44652</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>